--- a/Documentation/Iteration2/[CS451R] Iteration.xlsx
+++ b/Documentation/Iteration2/[CS451R] Iteration.xlsx
@@ -182,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -237,6 +237,7 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -247,16 +248,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -371,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -464,6 +461,9 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -502,6 +502,9 @@
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -550,10 +553,10 @@
     <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -576,7 +579,7 @@
     <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -587,9 +590,6 @@
     </xf>
     <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -607,35 +607,29 @@
     <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="9" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="9" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,799 +995,831 @@
         <v>85.0</v>
       </c>
       <c r="H5" s="30"/>
-      <c r="I5" s="31">
+      <c r="I5" s="32">
         <v>48.0</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="33">
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="38">
         <v>2.0</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40">
+      <c r="G6" s="40"/>
+      <c r="H6" s="41">
         <v>4.0</v>
       </c>
-      <c r="I6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="11"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42">
+      <c r="M6" s="42"/>
+      <c r="N6" s="43">
         <v>4.0</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="43">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="34"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="36" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="38">
         <v>30.0</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40">
+      <c r="G7" s="40"/>
+      <c r="H7" s="41">
         <v>9.0</v>
       </c>
-      <c r="I7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="42">
+      <c r="K7" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="L7" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="M7" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="N7" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="43">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="38">
+        <v>10.0</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41">
+        <v>5.0</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="43">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="38">
+        <v>10.0</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="43">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="38">
+        <v>10.0</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="L10" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="48">
+        <v>5.0</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="38">
+        <v>10.0</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41">
         <v>8.0</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42">
+      <c r="I11" s="38"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="48">
+        <v>5.0</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="43">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="38">
+        <v>12.0</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41">
+        <v>8.0</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="48">
+        <v>5.0</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="O12" s="43">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="38">
         <v>1.0</v>
       </c>
-      <c r="O7" s="40">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="37">
-        <v>10.0</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40">
-        <v>5.0</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="42">
-        <v>5.0</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="40">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="37">
-        <v>10.0</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="40">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="37">
-        <v>10.0</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40">
-        <v>9.0</v>
-      </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="40">
-        <v>4.0</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="46">
-        <v>5.0</v>
-      </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="40">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="37">
-        <v>10.0</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40">
-        <v>8.0</v>
-      </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="46">
-        <v>5.0</v>
-      </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="37">
-        <v>12.0</v>
-      </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40">
-        <v>8.0</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="40">
-        <v>3.0</v>
-      </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="46">
-        <v>5.0</v>
-      </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="40">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41">
         <v>2.0</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="42">
+      <c r="L13" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="M13" s="46"/>
+      <c r="N13" s="43">
         <v>2.0</v>
       </c>
-      <c r="O13" s="40">
-        <v>2.0</v>
+      <c r="O13" s="41">
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="31">
         <v>17.0</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="52">
         <v>0.0</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="32">
         <v>11.0</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="33">
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="34">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="36" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="38">
         <v>8.0</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40">
+      <c r="G15" s="40"/>
+      <c r="H15" s="41">
         <v>4.0</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="42">
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="43">
         <v>4.0</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="43">
         <v>4.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="36" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="38">
         <v>4.0</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="40">
+      <c r="G16" s="55"/>
+      <c r="H16" s="41">
         <v>4.0</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="42">
+      <c r="K16" s="43">
         <v>1.0</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="43">
         <v>1.0</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="48">
         <v>1.0</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="43">
         <v>1.0</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="43">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="38">
         <v>5.0</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40">
+      <c r="G17" s="40"/>
+      <c r="H17" s="41">
         <v>3.0</v>
       </c>
-      <c r="I17" s="37"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="46">
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="48">
         <v>3.0</v>
       </c>
-      <c r="N17" s="44"/>
-      <c r="O17" s="40">
+      <c r="N17" s="46"/>
+      <c r="O17" s="43">
         <v>3.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62">
         <v>15.0</v>
       </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63">
+      <c r="K18" s="64"/>
+      <c r="L18" s="65">
         <v>0.0</v>
       </c>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
     </row>
     <row r="19">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="71">
         <v>5.0</v>
       </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="71"/>
+      <c r="G19" s="72">
+        <v>5.0</v>
+      </c>
+      <c r="H19" s="71"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
     </row>
     <row r="20">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="71">
         <v>5.0</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="71"/>
+      <c r="G20" s="72">
+        <v>5.0</v>
+      </c>
+      <c r="H20" s="71"/>
+      <c r="I20" s="73"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="72"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="74"/>
     </row>
     <row r="21">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="71">
         <v>2.0</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="71"/>
+      <c r="G21" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="H21" s="71"/>
+      <c r="I21" s="73"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
     </row>
     <row r="22">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="69">
+      <c r="F22" s="71">
         <v>1.0</v>
       </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="71"/>
+      <c r="G22" s="72">
+        <v>2.0</v>
+      </c>
+      <c r="H22" s="71"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
     </row>
     <row r="23">
-      <c r="A23" s="64"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="79" t="s">
+      <c r="E23" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="81">
         <v>2.0</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="82"/>
+      <c r="G23" s="82">
+        <v>4.0</v>
+      </c>
+      <c r="H23" s="81"/>
+      <c r="I23" s="83"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
     </row>
     <row r="24">
-      <c r="A24" s="64"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60">
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62">
         <v>36.0</v>
       </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63">
+      <c r="K24" s="64"/>
+      <c r="L24" s="65">
         <v>0.0</v>
       </c>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
     </row>
     <row r="25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="71">
         <v>15.0</v>
       </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="71"/>
+      <c r="G25" s="72">
+        <v>30.0</v>
+      </c>
+      <c r="H25" s="71"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="73"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="75"/>
     </row>
     <row r="26">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="71">
         <v>3.0</v>
       </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="71"/>
+      <c r="G26" s="72">
+        <v>6.0</v>
+      </c>
+      <c r="H26" s="71"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="73"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="75"/>
     </row>
     <row r="27">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="71">
         <v>2.0</v>
       </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="71"/>
+      <c r="G27" s="72">
+        <v>4.0</v>
+      </c>
+      <c r="H27" s="71"/>
+      <c r="I27" s="73"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="73"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="75"/>
     </row>
     <row r="28">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="85">
+      <c r="F28" s="71">
         <v>5.0</v>
       </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="71"/>
+      <c r="G28" s="72">
+        <v>10.0</v>
+      </c>
+      <c r="H28" s="71"/>
+      <c r="I28" s="73"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="73"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="75"/>
     </row>
     <row r="29">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66" t="s">
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="85">
+      <c r="F29" s="71">
         <v>10.0</v>
       </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="71"/>
+      <c r="G29" s="72">
+        <v>20.0</v>
+      </c>
+      <c r="H29" s="71"/>
+      <c r="I29" s="73"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="73"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="75"/>
     </row>
     <row r="30">
-      <c r="A30" s="64"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="87" t="s">
+      <c r="A30" s="66"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="88" t="s">
+      <c r="E30" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F30" s="81">
         <v>1.0</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="82"/>
+      <c r="G30" s="82">
+        <v>4.0</v>
+      </c>
+      <c r="H30" s="81"/>
+      <c r="I30" s="83"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="83"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="84"/>
     </row>
     <row r="31">
-      <c r="A31" s="64"/>
-      <c r="B31" s="55" t="s">
+      <c r="A31" s="66"/>
+      <c r="B31" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60">
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="62">
         <v>4.0</v>
       </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="63">
+      <c r="K31" s="64"/>
+      <c r="L31" s="65">
         <v>0.0</v>
       </c>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
     </row>
     <row r="32">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="90" t="s">
+      <c r="E32" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="69">
+      <c r="F32" s="71">
         <v>3.0</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="88">
         <v>3.0</v>
       </c>
-      <c r="H32" s="69"/>
-      <c r="I32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="73"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="75"/>
     </row>
     <row r="33">
-      <c r="A33" s="64"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="77" t="s">
+      <c r="A33" s="66"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="88" t="s">
+      <c r="E33" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="89">
+      <c r="F33" s="81">
         <v>1.0</v>
       </c>
-      <c r="G33" s="81">
+      <c r="G33" s="89">
         <v>1.0</v>
       </c>
-      <c r="H33" s="80"/>
-      <c r="I33" s="82"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="83"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
